--- a/Data/ATH's Style Female Dresses - 3154539205/ATH's Style Female Dresses - 3154539205.xlsx
+++ b/Data/ATH's Style Female Dresses - 3154539205/ATH's Style Female Dresses - 3154539205.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\OneDrive\바탕 화면\림월드 번역\ATH's Style Female Dresses - 3154539205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\새 폴더\ATH's Style Female Dresses - 3154539205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE54ADF-864C-405C-89C2-8CF3E909A992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF3556-1ECB-44F9-9F76-61C1369AD28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240725" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -408,12 +408,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
